--- a/StudentList.xlsx
+++ b/StudentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qqq58\Desktop\BU Study\CS 591 P1 JAVA OO\Final Project\University-Grading-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A136170A-FAEE-4D4B-B4AD-C9954BF3AB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0D1112-61F4-46FD-9396-9F21C9416D5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Ruizhi</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
   </si>
   <si>
     <t>U2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U333</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,8 +470,8 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="D4">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/StudentList.xlsx
+++ b/StudentList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qqq58\Desktop\BU Study\CS 591 P1 JAVA OO\Final Project\University-Grading-System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasis/IdeaProjects/University-Grading-System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0D1112-61F4-46FD-9396-9F21C9416D5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B52669-44A3-174C-92FA-BE629677F7B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thanos@buddddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>al@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +71,9 @@
   <si>
     <t>U2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thanos@bu.edu</t>
   </si>
 </sst>
 </file>
@@ -85,13 +84,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -100,7 +99,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -131,8 +130,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,10 +412,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
@@ -429,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -443,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -454,10 +458,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -465,10 +469,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>33</v>
